--- a/Hours/patient/files/patient.xlsx
+++ b/Hours/patient/files/patient.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10768192\Desktop\pbischoff3.github.io\Hours\patient\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09673807-82EC-4FA7-A963-51EAEAE2F2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD79BCB4-6FE7-444E-BB03-502F06659659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27075" yWindow="8070" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="1875" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -366,7 +366,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,7 +407,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>285</v>
+        <v>672</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">

--- a/Hours/patient/files/patient.xlsx
+++ b/Hours/patient/files/patient.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10768192\Desktop\pbischoff3.github.io\Hours\patient\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD79BCB4-6FE7-444E-BB03-502F06659659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21DD7F7-C083-472F-8827-653FB44C27C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="1875" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2025" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -366,7 +366,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,7 +407,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>672</v>
+        <v>692</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
